--- a/biology/Botanique/Astragalus_hypoglottis/Astragalus_hypoglottis.xlsx
+++ b/biology/Botanique/Astragalus_hypoglottis/Astragalus_hypoglottis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astragale pourpre
 Astragalus hypoglottis, l'astragale pourpre, est une espèce végétale de la famille des Fabaceae. Elle est originaire du sud-ouest de l'Europe.
@@ -512,21 +524,126 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante herbacée vivace velue et étalée, de 10 à 30 cm. Ses feuilles, oblongues, pennées, sont composées de folioles ovales à elliptiques. La tige portant l'inflorescence en grappe serrée est dressée. Les fleurs de rose-pourpre à rouge-pourpre ont un étendard[1] 2 à 3 fois plus long que les pétales inférieurs. Le fruit est une gousse, velue, trapue.
-On rencontre l'astragale pourpre dans les montagnes du sud de l'Europe, dans les pelouses chaudes et basiques[2].
-Organes reproducteurs
-Couleur dominante des fleurs : rose
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante herbacée vivace velue et étalée, de 10 à 30 cm. Ses feuilles, oblongues, pennées, sont composées de folioles ovales à elliptiques. La tige portant l'inflorescence en grappe serrée est dressée. Les fleurs de rose-pourpre à rouge-pourpre ont un étendard 2 à 3 fois plus long que les pétales inférieurs. Le fruit est une gousse, velue, trapue.
+On rencontre l'astragale pourpre dans les montagnes du sud de l'Europe, dans les pelouses chaudes et basiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Astragalus_hypoglottis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astragalus_hypoglottis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Organes reproducteurs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Couleur dominante des fleurs : rose
 Période de floraison : mai - juillet
 Inflorescence : racème capituliforme
 Sexualité : hermaphrodite
-Pollinisation : entomogame
-Graine
-Fruit : gousse
-Dissémination : épizoochore
-Répartition et habitat
-Chorologie : orophyte alpien méridional
+Pollinisation : entomogame</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Astragalus_hypoglottis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astragalus_hypoglottis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Graine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fruit : gousse
+Dissémination : épizoochore</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Astragalus_hypoglottis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astragalus_hypoglottis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chorologie : orophyte alpien méridional
 Données d'après : Julve, Ph., 2017 ff. - Baseflor. Index botanique, écologique et chorologique de la flore de France. Version : 09 février 2017
 </t>
         </is>
